--- a/tests/Gauges/tPage1_options.xlsx
+++ b/tests/Gauges/tPage1_options.xlsx
@@ -132,7 +132,6 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -140,13 +139,11 @@
       <x:color indexed="16"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
